--- a/biology/Botanique/Code_BBCH_du_théier/Code_BBCH_du_théier.xlsx
+++ b/biology/Botanique/Code_BBCH_du_théier/Code_BBCH_du_théier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Code_BBCH_du_th%C3%A9ier</t>
+          <t>Code_BBCH_du_théier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le code BBCH du théier identifie les stades de développement phénologiques du théier (Camellia sinensis).  C'est une version spécifique pour cette espèce du code BBCH[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code BBCH du théier identifie les stades de développement phénologiques du théier (Camellia sinensis).  C'est une version spécifique pour cette espèce du code BBCH.
 Pour les théiers, le code BBCH n'est pas unanimement établi. L'observation et les besoins de la théiculture permet de construire en première approche cette version de code BBCH pour les théiers. Il est proposé dans l'ouvrage "Théiers, Théieraies, Feuilles de Thés"
-[2]
 </t>
         </is>
       </c>
